--- a/기획서/콘텐츠 리소스.xlsx
+++ b/기획서/콘텐츠 리소스.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F335B4D-5DBE-45BF-A2FF-7A897CFF0B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC683D-F2B3-4FBE-BF1A-A3DFAF4F6A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21825" yWindow="4425" windowWidth="15330" windowHeight="11460" xr2:uid="{7CAD2B62-E859-4D6C-A912-0C941CB153B1}"/>
+    <workbookView xWindow="3225" yWindow="1185" windowWidth="23820" windowHeight="18555" activeTab="1" xr2:uid="{7CAD2B62-E859-4D6C-A912-0C941CB153B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="작물" sheetId="1" r:id="rId1"/>
+    <sheet name="스킬" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -561,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F672A9B-F3A6-4496-B9F1-E0D3EFCFEFE1}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -929,4 +930,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33D76D-2DBD-41E6-8C53-4E277626B390}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>